--- a/public/API-spec.xlsx
+++ b/public/API-spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\2018\Highton_Spirit-In-Motion\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18752DA8-B534-433D-AD8E-54437832CF89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74CF2CB-11FB-4A90-B8A1-62D5FFCE6388}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
